--- a/biology/Zoologie/Chrysaster/Chrysaster.xlsx
+++ b/biology/Zoologie/Chrysaster/Chrysaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysaster est un genre d'insectes de l'ordre des lépidoptères, de la famille des Gracillariidae et de la sous-famille des Lithocolletinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 octobre 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 octobre 2013) :
 Chrysaster hagicola Kumata, 1961 - espèce type - Japon, Corée et extrême est de la Russie
 Chrysaster ostensackenella (Fitch, 1859) - Canada (Québec et Nouvelle-Écosse) et États-Unis (Illinois, Kentucky, New York, Maine, Maryland, Michigan, Vermont, Arizona, Massachusetts, Caroline du Nord et Connecticut)</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Tosio Kumata, « Descriptions of a new genus and a new species of Gracillariidae from Japan (Lepidoptera) », Insecta Matsumurana, 北大, vol. 24, no 1,‎ mars 1961, p. 52-56 (ISSN 0020-1804 et 0020-1804, OCLC 1753180, lire en ligne)</t>
         </is>
